--- a/aux1/aJThss9cZcGfrUrm7rqcYa.xlsx
+++ b/aux1/aJThss9cZcGfrUrm7rqcYa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujim\Documents\OAAS\aux1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD2A85F-0850-4502-AE33-052974B9E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F976879A-4F8F-464A-85C7-2B8288138576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6120" uniqueCount="2987">
   <si>
     <t>type</t>
   </si>
@@ -8980,6 +8980,9 @@
   </si>
   <si>
     <t>Afectaciones a lideres&lt;br&gt;, defensores(as) de DDHH</t>
+  </si>
+  <si>
+    <t>relacionamiento_con_empresas</t>
   </si>
 </sst>
 </file>
@@ -11943,10 +11946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1401"/>
+  <dimension ref="A1:F1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1213" workbookViewId="0">
-      <selection activeCell="C1224" sqref="C1224"/>
+    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
+      <selection activeCell="B1225" sqref="B1225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31331,6 +31334,17 @@
         <v>2963</v>
       </c>
       <c r="C1401" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1402" t="s">
         <v>2701</v>
       </c>
     </row>

--- a/aux1/aJThss9cZcGfrUrm7rqcYa.xlsx
+++ b/aux1/aJThss9cZcGfrUrm7rqcYa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujim\Documents\OAAS\aux1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujim\Documents\OAAS\app\aux1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F976879A-4F8F-464A-85C7-2B8288138576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322BE7A-8ED6-4829-BF45-E87AE5298309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8658,9 +8658,6 @@
     <t>contaminaci_n_por_map_muse_aei</t>
   </si>
   <si>
-    <t>Contaminación por Minas Antipersona (MAP) Municiones Abandonadas sin Explotar (MUSE) Artefactos Explosivos Improvisados (AEI)</t>
-  </si>
-  <si>
     <t>afectaciones_a_infraestructura</t>
   </si>
   <si>
@@ -8983,6 +8980,9 @@
   </si>
   <si>
     <t>relacionamiento_con_empresas</t>
+  </si>
+  <si>
+    <t>Contaminación por Minas Antipersona (MAP)&lt;br&gt; Municiones Abandonadas sin Explotar (MUSE)&lt;br&gt; Artefactos Explosivos Improvisados (AEI)</t>
   </si>
 </sst>
 </file>
@@ -11948,8 +11948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
-      <selection activeCell="B1225" sqref="B1225"/>
+    <sheetView tabSelected="1" topLeftCell="A1335" workbookViewId="0">
+      <selection activeCell="C1347" sqref="C1347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28839,7 +28839,7 @@
         <v>2684</v>
       </c>
       <c r="C1211" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="D1211">
         <v>8</v>
@@ -28937,7 +28937,7 @@
         <v>2697</v>
       </c>
       <c r="C1218" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D1218">
         <v>15</v>
@@ -28951,7 +28951,7 @@
         <v>2698</v>
       </c>
       <c r="C1219" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D1219">
         <v>16</v>
@@ -28976,7 +28976,7 @@
         <v>2667</v>
       </c>
       <c r="B1221" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="C1221" t="s">
         <v>2701</v>
@@ -29021,7 +29021,7 @@
         <v>2706</v>
       </c>
       <c r="C1224" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="D1224">
         <v>21</v>
@@ -29035,7 +29035,7 @@
         <v>2707</v>
       </c>
       <c r="C1225" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="D1225">
         <v>22</v>
@@ -29063,7 +29063,7 @@
         <v>2711</v>
       </c>
       <c r="C1227" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
@@ -29074,7 +29074,7 @@
         <v>2712</v>
       </c>
       <c r="C1228" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="D1228">
         <v>1</v>
@@ -29088,7 +29088,7 @@
         <v>2713</v>
       </c>
       <c r="C1229" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="D1229">
         <v>2</v>
@@ -29102,7 +29102,7 @@
         <v>2714</v>
       </c>
       <c r="C1230" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D1230">
         <v>3</v>
@@ -29130,7 +29130,7 @@
         <v>2717</v>
       </c>
       <c r="C1232" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D1232">
         <v>5</v>
@@ -29144,7 +29144,7 @@
         <v>2718</v>
       </c>
       <c r="C1233" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="D1233">
         <v>6</v>
@@ -29172,7 +29172,7 @@
         <v>2721</v>
       </c>
       <c r="C1235" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D1235">
         <v>8</v>
@@ -29186,7 +29186,7 @@
         <v>2722</v>
       </c>
       <c r="C1236" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="D1236">
         <v>9</v>
@@ -29214,7 +29214,7 @@
         <v>2725</v>
       </c>
       <c r="C1238" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D1238">
         <v>11</v>
@@ -29270,7 +29270,7 @@
         <v>2732</v>
       </c>
       <c r="C1242" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
@@ -29281,7 +29281,7 @@
         <v>2733</v>
       </c>
       <c r="C1243" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D1243">
         <v>1</v>
@@ -29295,7 +29295,7 @@
         <v>2734</v>
       </c>
       <c r="C1244" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="D1244">
         <v>2</v>
@@ -29365,7 +29365,7 @@
         <v>2743</v>
       </c>
       <c r="C1249" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D1249">
         <v>7</v>
@@ -29379,7 +29379,7 @@
         <v>2744</v>
       </c>
       <c r="C1250" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D1250">
         <v>8</v>
@@ -30647,7 +30647,7 @@
         <v>2877</v>
       </c>
       <c r="C1347" t="s">
-        <v>2878</v>
+        <v>2986</v>
       </c>
       <c r="D1347">
         <v>5</v>
@@ -30658,10 +30658,10 @@
         <v>2866</v>
       </c>
       <c r="B1348" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1348" t="s">
         <v>2879</v>
-      </c>
-      <c r="C1348" t="s">
-        <v>2880</v>
       </c>
       <c r="D1348">
         <v>6</v>
@@ -30672,10 +30672,10 @@
         <v>2866</v>
       </c>
       <c r="B1349" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1349" t="s">
         <v>2881</v>
-      </c>
-      <c r="C1349" t="s">
-        <v>2882</v>
       </c>
       <c r="D1349">
         <v>7</v>
@@ -30686,10 +30686,10 @@
         <v>2866</v>
       </c>
       <c r="B1350" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C1350" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="D1350">
         <v>8</v>
@@ -30700,10 +30700,10 @@
         <v>2866</v>
       </c>
       <c r="B1351" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1351" t="s">
         <v>2884</v>
-      </c>
-      <c r="C1351" t="s">
-        <v>2885</v>
       </c>
       <c r="D1351">
         <v>9</v>
@@ -30714,10 +30714,10 @@
         <v>2866</v>
       </c>
       <c r="B1352" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1352" t="s">
         <v>2886</v>
-      </c>
-      <c r="C1352" t="s">
-        <v>2887</v>
       </c>
       <c r="D1352">
         <v>10</v>
@@ -30728,10 +30728,10 @@
         <v>2866</v>
       </c>
       <c r="B1353" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1353" t="s">
         <v>2888</v>
-      </c>
-      <c r="C1353" t="s">
-        <v>2889</v>
       </c>
       <c r="D1353">
         <v>11</v>
@@ -30742,10 +30742,10 @@
         <v>2866</v>
       </c>
       <c r="B1354" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C1354" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D1354">
         <v>12</v>
@@ -30764,24 +30764,24 @@
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1356" t="s">
         <v>2891</v>
       </c>
-      <c r="B1356" t="s">
+      <c r="C1356" t="s">
         <v>2892</v>
-      </c>
-      <c r="C1356" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1357" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1357" t="s">
         <v>2894</v>
-      </c>
-      <c r="C1357" t="s">
-        <v>2895</v>
       </c>
       <c r="D1357">
         <v>1</v>
@@ -30789,13 +30789,13 @@
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1358" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1358" t="s">
         <v>2896</v>
-      </c>
-      <c r="C1358" t="s">
-        <v>2897</v>
       </c>
       <c r="D1358">
         <v>2</v>
@@ -30803,13 +30803,13 @@
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1359" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1359" t="s">
         <v>2898</v>
-      </c>
-      <c r="C1359" t="s">
-        <v>2899</v>
       </c>
       <c r="D1359">
         <v>3</v>
@@ -30817,13 +30817,13 @@
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1360" t="s">
         <v>2682</v>
       </c>
       <c r="C1360" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D1360">
         <v>4</v>
@@ -30831,13 +30831,13 @@
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1361" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1361" t="s">
         <v>2901</v>
-      </c>
-      <c r="C1361" t="s">
-        <v>2902</v>
       </c>
       <c r="D1361">
         <v>5</v>
@@ -30845,13 +30845,13 @@
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1362" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C1362" t="s">
         <v>2903</v>
-      </c>
-      <c r="C1362" t="s">
-        <v>2904</v>
       </c>
       <c r="D1362">
         <v>6</v>
@@ -30859,13 +30859,13 @@
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1363" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1363" t="s">
         <v>2905</v>
-      </c>
-      <c r="C1363" t="s">
-        <v>2906</v>
       </c>
       <c r="D1363">
         <v>7</v>
@@ -30873,7 +30873,7 @@
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1364" t="s">
         <v>2788</v>
@@ -30887,10 +30887,10 @@
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1365" t="s">
         <v>2907</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>2908</v>
       </c>
       <c r="C1365" t="s">
         <v>2747</v>
@@ -30898,13 +30898,13 @@
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1366" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1366" t="s">
         <v>2909</v>
-      </c>
-      <c r="C1366" t="s">
-        <v>2910</v>
       </c>
       <c r="D1366">
         <v>1</v>
@@ -30912,13 +30912,13 @@
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1367" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1367" t="s">
         <v>2911</v>
-      </c>
-      <c r="C1367" t="s">
-        <v>2912</v>
       </c>
       <c r="D1367">
         <v>2</v>
@@ -30926,13 +30926,13 @@
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1368" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1368" t="s">
         <v>2913</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>2914</v>
       </c>
       <c r="D1368">
         <v>3</v>
@@ -30940,13 +30940,13 @@
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1369" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C1369" t="s">
         <v>2915</v>
-      </c>
-      <c r="C1369" t="s">
-        <v>2916</v>
       </c>
       <c r="D1369">
         <v>4</v>
@@ -30954,13 +30954,13 @@
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1370" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1370" t="s">
         <v>2917</v>
-      </c>
-      <c r="C1370" t="s">
-        <v>2918</v>
       </c>
       <c r="D1370">
         <v>5</v>
@@ -30968,13 +30968,13 @@
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1371" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1371" t="s">
         <v>2919</v>
-      </c>
-      <c r="C1371" t="s">
-        <v>2920</v>
       </c>
       <c r="D1371">
         <v>6</v>
@@ -30982,13 +30982,13 @@
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1372" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C1372" t="s">
         <v>2921</v>
-      </c>
-      <c r="C1372" t="s">
-        <v>2922</v>
       </c>
       <c r="D1372">
         <v>7</v>
@@ -30996,13 +30996,13 @@
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1373" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1373" t="s">
         <v>2923</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>2924</v>
       </c>
       <c r="D1373">
         <v>8</v>
@@ -31010,7 +31010,7 @@
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1374" t="s">
         <v>2768</v>
@@ -31024,13 +31024,13 @@
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1375" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1375" t="s">
         <v>2925</v>
-      </c>
-      <c r="C1375" t="s">
-        <v>2926</v>
       </c>
       <c r="D1375">
         <v>10</v>
@@ -31038,7 +31038,7 @@
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1376" t="s">
         <v>2786</v>
@@ -31052,13 +31052,13 @@
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1377" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1377" t="s">
         <v>2927</v>
-      </c>
-      <c r="C1377" t="s">
-        <v>2928</v>
       </c>
       <c r="D1377">
         <v>12</v>
@@ -31066,13 +31066,13 @@
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1378" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1378" t="s">
         <v>2929</v>
-      </c>
-      <c r="C1378" t="s">
-        <v>2930</v>
       </c>
       <c r="D1378">
         <v>13</v>
@@ -31080,13 +31080,13 @@
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1379" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C1379" t="s">
         <v>2931</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>2932</v>
       </c>
       <c r="D1379">
         <v>14</v>
@@ -31094,13 +31094,13 @@
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1380" t="s">
         <v>2730</v>
       </c>
       <c r="C1380" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="D1380">
         <v>15</v>
@@ -31108,7 +31108,7 @@
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1381" t="s">
         <v>2835</v>
@@ -31119,7 +31119,7 @@
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1382" t="s">
         <v>2836</v>
@@ -31130,32 +31130,32 @@
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1383" t="s">
         <v>2935</v>
       </c>
-      <c r="B1383" t="s">
+      <c r="C1383" t="s">
         <v>2936</v>
-      </c>
-      <c r="C1383" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1384" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1384" t="s">
         <v>2938</v>
-      </c>
-      <c r="C1384" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1385" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C1385" t="s">
         <v>2839</v>
@@ -31163,10 +31163,10 @@
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1386" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C1386" t="s">
         <v>2841</v>
@@ -31174,21 +31174,21 @@
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1387" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1387" t="s">
         <v>2942</v>
-      </c>
-      <c r="C1387" t="s">
-        <v>2943</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1388" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C1388" t="s">
         <v>2847</v>
@@ -31196,7 +31196,7 @@
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1389" t="s">
         <v>2808</v>
@@ -31207,7 +31207,7 @@
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1390" t="s">
         <v>2708</v>
@@ -31218,84 +31218,84 @@
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1391" t="s">
         <v>2945</v>
       </c>
-      <c r="B1391" t="s">
+      <c r="C1391" t="s">
         <v>2946</v>
-      </c>
-      <c r="C1391" t="s">
-        <v>2947</v>
       </c>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B1392" t="s">
         <v>366</v>
       </c>
       <c r="C1392" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1393" t="s">
         <v>2949</v>
       </c>
-      <c r="B1393" t="s">
+      <c r="C1393" t="s">
         <v>2950</v>
-      </c>
-      <c r="C1393" t="s">
-        <v>2951</v>
       </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1394" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1394" t="s">
         <v>2952</v>
-      </c>
-      <c r="C1394" t="s">
-        <v>2953</v>
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1395" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1395" t="s">
         <v>2954</v>
-      </c>
-      <c r="C1395" t="s">
-        <v>2955</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1396" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1396" t="s">
         <v>2956</v>
-      </c>
-      <c r="C1396" t="s">
-        <v>2957</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1397" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1397" t="s">
         <v>2958</v>
-      </c>
-      <c r="C1397" t="s">
-        <v>2959</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B1398" t="s">
         <v>2619</v>
@@ -31306,7 +31306,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B1399" t="s">
         <v>2621</v>
@@ -31317,7 +31317,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B1400" t="s">
         <v>2623</v>
@@ -31328,10 +31328,10 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1401" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="C1401" t="s">
         <v>2701</v>
@@ -31339,10 +31339,10 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1402" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="C1402" t="s">
         <v>2701</v>
@@ -31364,12 +31364,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
   </sheetData>
